--- a/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
+++ b/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
@@ -357,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="false">
       <selection activeCell="C9" sqref="C9"/>
@@ -638,6 +638,23 @@
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>szablya</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Balint</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Harcos</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
         <is>
           <t>szablya</t>
         </is>

--- a/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
+++ b/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19095" windowHeight="5385"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19095" windowHeight="5385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="JatHarcos"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="94">
   <si>
     <t>Nev</t>
   </si>
@@ -220,6 +220,84 @@
   </si>
   <si>
     <t>ghgj</t>
+  </si>
+  <si>
+    <t>BogatiB</t>
+  </si>
+  <si>
+    <t>Casdfg</t>
+  </si>
+  <si>
+    <t>kés</t>
+  </si>
+  <si>
+    <t>Owertz</t>
+  </si>
+  <si>
+    <t>asdfg</t>
+  </si>
+  <si>
+    <t>ghgjg</t>
+  </si>
+  <si>
+    <t>hosszú kard</t>
+  </si>
+  <si>
+    <t>qwert</t>
+  </si>
+  <si>
+    <t>tőr</t>
+  </si>
+  <si>
+    <t>dgdfgf</t>
+  </si>
+  <si>
+    <t>dgfhjf</t>
+  </si>
+  <si>
+    <t>ertw</t>
+  </si>
+  <si>
+    <t>Kep</t>
+  </si>
+  <si>
+    <t>Images\Karakterek\harcos1.png</t>
+  </si>
+  <si>
+    <t>Images\Karakterek\ijasz0.png</t>
+  </si>
+  <si>
+    <t>Images\Karakterek\magus1.png</t>
+  </si>
+  <si>
+    <t>Béla</t>
+  </si>
+  <si>
+    <t>pack://application:,,,/Raetreon;component/Images/Karakterek/harcos1.png</t>
+  </si>
+  <si>
+    <t>ffdgfh</t>
+  </si>
+  <si>
+    <t>paages/Karakterek/harcos0.png</t>
+  </si>
+  <si>
+    <t>fdhdafa</t>
+  </si>
+  <si>
+    <t>t/Images/Karakterek/harcos0.png</t>
+  </si>
+  <si>
+    <t>ghkhlo</t>
+  </si>
+  <si>
+    <t>/Images/Karakterek/harcos0.png</t>
+  </si>
+  <si>
+    <t>Magee</t>
+  </si>
+  <si>
+    <t>/Images/Karakterek/magus1.png</t>
   </si>
 </sst>
 </file>
@@ -553,15 +631,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="78" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row spans="1:3" outlineLevel="0" r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,8 +653,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="2">
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -582,8 +667,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="3">
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -593,8 +681,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="4">
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -604,8 +695,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="5">
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -615,8 +709,11 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="6">
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -626,8 +723,11 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="7">
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -637,8 +737,11 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="8">
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -648,8 +751,11 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="9">
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -659,8 +765,11 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="10">
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -670,8 +779,11 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="11">
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -681,8 +793,11 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="12">
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -692,8 +807,11 @@
       <c r="C12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="13">
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -703,8 +821,11 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="14">
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -714,8 +835,11 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="15">
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -725,8 +849,11 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="16">
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -736,8 +863,11 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="17">
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -747,8 +877,11 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="18">
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -758,8 +891,11 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="19">
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -769,8 +905,11 @@
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="20">
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -780,107 +919,162 @@
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>BogatiB</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>Harcos</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>szablya</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Casdfg</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>Harcos</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>kés</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Owertz</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>Harcos</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>tüskés buzogány</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>asdfg</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>Harcos</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>szablya</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>ghgjg</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>Harcos</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>hosszú kard</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>qwert</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>Harcos</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>tőr</t>
-        </is>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -890,15 +1084,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row spans="1:3" outlineLevel="0" r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,8 +1106,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="2">
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -919,8 +1120,11 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="3">
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -930,8 +1134,11 @@
       <c r="C3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="4">
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -941,8 +1148,11 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="5">
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -952,8 +1162,11 @@
       <c r="C5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="6">
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -963,8 +1176,11 @@
       <c r="C6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="7">
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -974,8 +1190,11 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="8">
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -985,8 +1204,11 @@
       <c r="C8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="9">
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -996,8 +1218,11 @@
       <c r="C9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="10">
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1007,8 +1232,11 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="11">
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1018,8 +1246,11 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="12">
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1029,8 +1260,11 @@
       <c r="C12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="13">
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1040,8 +1274,11 @@
       <c r="C13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="14">
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1051,8 +1288,11 @@
       <c r="C14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="15">
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1062,8 +1302,11 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="16">
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1073,8 +1316,11 @@
       <c r="C16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="17">
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1084,8 +1330,11 @@
       <c r="C17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="18">
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1095,8 +1344,11 @@
       <c r="C18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="19">
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1106,8 +1358,11 @@
       <c r="C19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="20">
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1117,8 +1372,11 @@
       <c r="C20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="21">
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1128,8 +1386,11 @@
       <c r="C21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="22">
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1139,8 +1400,11 @@
       <c r="C22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="23">
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1150,8 +1414,11 @@
       <c r="C23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="24">
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -1161,8 +1428,11 @@
       <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="25">
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
@@ -1172,8 +1442,11 @@
       <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="26">
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -1183,22 +1456,36 @@
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>dgfhjf</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>Mágus</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>jég botja</t>
-        </is>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1208,15 +1495,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="false">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row spans="1:3" outlineLevel="0" r="1">
+    <row spans="1:4" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1226,8 +1517,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="2">
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1531,11 @@
       <c r="C2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="3">
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1248,8 +1545,11 @@
       <c r="C3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="4">
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="4">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1259,8 +1559,11 @@
       <c r="C4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="5">
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="5">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1270,8 +1573,11 @@
       <c r="C5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="6">
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="6">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1281,8 +1587,11 @@
       <c r="C6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="7">
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="7">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -1292,8 +1601,11 @@
       <c r="C7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="8">
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="8">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -1303,8 +1615,11 @@
       <c r="C8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="9">
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="9">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1314,8 +1629,11 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="10">
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="10">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1325,8 +1643,11 @@
       <c r="C10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="11">
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="11">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -1336,8 +1657,11 @@
       <c r="C11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="12">
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="12">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1347,8 +1671,11 @@
       <c r="C12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="13">
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -1358,8 +1685,11 @@
       <c r="C13" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="14">
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -1369,8 +1699,11 @@
       <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row spans="1:3" outlineLevel="0" r="15">
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,21 +1713,43 @@
       <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row spans="1:4" outlineLevel="0" r="16">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ertw</t>
+          <t>qerutzitiz</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>Íjász</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>számszeríj</t>
+          <t>dobókereszt</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/ijasz0.png</t>
         </is>
       </c>
     </row>

--- a/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
+++ b/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
@@ -631,9 +631,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0" rightToLeft="false">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -643,7 +643,7 @@
     <col min="4" max="4" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +657,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -671,7 +671,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -685,7 +685,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -699,7 +699,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -713,7 +713,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -727,7 +727,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -741,7 +741,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -755,7 +755,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -769,7 +769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -783,7 +783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -797,7 +797,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -811,7 +811,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="13">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -825,7 +825,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="14">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -839,7 +839,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="15">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -853,7 +853,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="16">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -867,7 +867,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="17">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -881,7 +881,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="18">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -895,7 +895,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -909,7 +909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -923,7 +923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -937,7 +937,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -951,7 +951,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -965,7 +965,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -979,7 +979,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -993,7 +993,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="29">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="30">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="31">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -1075,6 +1075,50 @@
       </c>
       <c r="D31" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>sfdf</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Harcos</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>csatabárd</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/harcos0.png</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>fdfd</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Harcos</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>lándzsa</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/harcos0.png</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1084,9 +1128,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0" rightToLeft="false">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -1096,7 +1140,7 @@
     <col min="4" max="4" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1154,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1124,7 +1168,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1138,7 +1182,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1152,7 +1196,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="5">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1166,7 +1210,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1224,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="7">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1194,7 +1238,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="8">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1208,7 +1252,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="9">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1222,7 +1266,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="10">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1236,7 +1280,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="11">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1250,7 +1294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="12">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1264,7 +1308,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="13">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1278,7 +1322,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="14">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1292,7 +1336,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="15">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1306,7 +1350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="16">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1320,7 +1364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1334,7 +1378,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="18">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1348,7 +1392,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="19">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1362,7 +1406,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="20">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1376,7 +1420,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="21">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1390,7 +1434,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="22">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1404,7 +1448,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="23">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1418,7 +1462,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -1432,7 +1476,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
@@ -1446,7 +1490,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -1460,7 +1504,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -1474,7 +1518,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row spans="1:4" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -1486,6 +1530,28 @@
       </c>
       <c r="D28" s="1" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>hghdgssdf</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Mágus</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>tűz botja</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/magus1.png</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
+++ b/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
@@ -631,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0" rightToLeft="false">
       <selection activeCell="D31" sqref="D31"/>
@@ -1121,6 +1121,28 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>ggkgdfghj</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Harcos</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>hosszú kard</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/harcos1.png</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1128,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0" rightToLeft="false">
       <selection activeCell="E26" sqref="E26"/>
@@ -1554,6 +1576,50 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>qhfgh</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Mágus</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>éjtalizmán</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/magus0.png</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>rutiqéfgg</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Mágus</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>szél botja</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/magus1.png</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1561,7 +1627,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="false">
       <selection activeCell="F14" sqref="F14"/>
@@ -1819,6 +1885,50 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>uziul</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Íjász</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>számszeríj</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/ijasz0.png</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>fhhfjh</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Íjász</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>hosszú íj</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/ijasz0.png</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
+++ b/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
@@ -1150,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0" rightToLeft="false">
       <selection activeCell="E26" sqref="E26"/>
@@ -1615,6 +1615,28 @@
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/magus1.png</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>etzui</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Mágus</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>föld botja</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
         <is>
           <t>/Images/Karakterek/magus1.png</t>
         </is>

--- a/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
+++ b/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
@@ -631,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0" rightToLeft="false">
       <selection activeCell="D31" sqref="D31"/>
@@ -1140,6 +1140,28 @@
       <c r="D34" s="1" t="inlineStr">
         <is>
           <t>/Images/Karakterek/harcos1.png</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>4343</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Harcos</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>rövid kard</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/harcos0.png</t>
         </is>
       </c>
     </row>

--- a/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
+++ b/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
@@ -631,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0" rightToLeft="false">
       <selection activeCell="D31" sqref="D31"/>
@@ -1165,6 +1165,28 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>tzuiopő</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Harcos</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>katana</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/harcos1.png</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1172,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0" rightToLeft="false">
       <selection activeCell="E26" sqref="E26"/>
@@ -1659,6 +1681,28 @@
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/magus1.png</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Uiorepzr</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Mágus</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>szél botja</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
         <is>
           <t>/Images/Karakterek/magus1.png</t>
         </is>

--- a/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
+++ b/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
@@ -1194,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0" rightToLeft="false">
       <selection activeCell="E26" sqref="E26"/>
@@ -1705,6 +1705,28 @@
       <c r="D33" s="1" t="inlineStr">
         <is>
           <t>/Images/Karakterek/magus1.png</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>krjthznfnf</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Mágus</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>éjtalizmán</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/magus0.png</t>
         </is>
       </c>
     </row>

--- a/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
+++ b/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
@@ -631,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0" rightToLeft="false">
       <selection activeCell="D31" sqref="D31"/>
@@ -1184,6 +1184,28 @@
       <c r="D36" s="1" t="inlineStr">
         <is>
           <t>/Images/Karakterek/harcos1.png</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Ábel</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Harcos</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>rövid kard</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>/Images/Karakterek/harcos0.png</t>
         </is>
       </c>
     </row>

--- a/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
+++ b/Raetreon/bin/Debug/Fajlok/DB/jatekosadatbazis.xlsx
@@ -631,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0" rightToLeft="false">
       <selection activeCell="D31" sqref="D31"/>
@@ -1184,28 +1184,6 @@
       <c r="D36" s="1" t="inlineStr">
         <is>
           <t>/Images/Karakterek/harcos1.png</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Ábel</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>Harcos</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>rövid kard</t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
-        <is>
-          <t>/Images/Karakterek/harcos0.png</t>
         </is>
       </c>
     </row>
